--- a/Data_CSV.xlsx
+++ b/Data_CSV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rushi" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Chen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
   <si>
     <t>0-1</t>
   </si>
@@ -149,6 +150,60 @@
   </si>
   <si>
     <t>Lasting Time of issues: - Group3</t>
+  </si>
+  <si>
+    <t>Milestones:</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>issueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group2:</t>
+  </si>
+  <si>
+    <t>Group1:</t>
+  </si>
+  <si>
+    <t>issueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group3:</t>
+  </si>
+  <si>
+    <t>issue ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments/issue:</t>
+  </si>
+  <si>
+    <t>Average Time:</t>
+  </si>
+  <si>
+    <t>issue ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time/sec</t>
+  </si>
+  <si>
+    <t>Time/Hr</t>
   </si>
 </sst>
 </file>
@@ -199,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -212,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2790,12 +2846,1309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>17882.5</v>
+      </c>
+      <c r="C38">
+        <v>3600</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E63" si="0">B38/$C$2</f>
+        <v>3576.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>59996</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>11999.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>4179</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>835.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>233427</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>46685.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>21197</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>4239.3999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" s="8">
+        <v>65651.5</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>13130.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>128516.666666666</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>25703.333333333201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>19002.7</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>3800.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>28852.1176470588</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>5770.4235294117598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>342429</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>68485.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>174886</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>34977.199999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>86200</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>17240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="B55">
+        <v>44582.181818181802</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>8916.4363636363596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>24419.666666666599</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>4883.9333333333198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>24573.75</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>4914.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>31</v>
+      </c>
+      <c r="B59">
+        <v>135994.5</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>27198.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>32</v>
+      </c>
+      <c r="B60">
+        <v>17620.8</v>
+      </c>
+      <c r="D60">
+        <v>32</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>3524.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>6906.7142857142799</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1381.342857142856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62">
+        <v>10580.1</v>
+      </c>
+      <c r="D62">
+        <v>34</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>2116.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>145</v>
+      </c>
+      <c r="D63">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>3600</v>
+      </c>
+      <c r="D67">
+        <f>B67/$C$67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>6214020</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D79" si="1">B68/$C$67</f>
+        <v>1726.1166666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>73306.5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>20.362916666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>145599</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>40.444166666666668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>9654</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>2.6816666666666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>3026222</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>840.61722222222227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>77</v>
+      </c>
+      <c r="C83">
+        <v>3600</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <f>B83/$C$2</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>592</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:E97" si="2">B84/$C$2</f>
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>26524</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>14.7355555555555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" s="8">
+        <v>82394.727272727207</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>25.1761666666666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>12281</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>2456.1999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>101490.5</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>20298.099999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>93992.333333333299</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>18798.46666666666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>17814</v>
+      </c>
+      <c r="D90">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>3562.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>21471</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>4294.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>19</v>
+      </c>
+      <c r="B93">
+        <v>513295</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>102659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>20</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>21</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>